--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2106894.213481684</v>
+        <v>2106176.976866206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730082</v>
+        <v>4950248.695730076</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8720245.227883477</v>
+        <v>8720245.227883475</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>241.1078504188222</v>
       </c>
       <c r="C11" t="n">
-        <v>69.70191277507622</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>220.1004714210319</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.0144250789146</v>
       </c>
       <c r="G11" t="n">
-        <v>262.3409051157628</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909797</v>
+        <v>22.534253539098</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261854</v>
+        <v>70.46388924261856</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V11" t="n">
         <v>184.6142276590013</v>
@@ -1433,7 +1433,7 @@
         <v>209.9143271369582</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>142.0192483991834</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>11.09138232743808</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>61.96412649528658</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>48.11749488694655</v>
       </c>
       <c r="H12" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
         <v>185.4896446502776</v>
@@ -1506,16 +1506,16 @@
         <v>216.28848525876</v>
       </c>
       <c r="V12" t="n">
-        <v>77.11641262213257</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>89.90745637500626</v>
+        <v>89.90745637500629</v>
       </c>
       <c r="X12" t="n">
-        <v>46.94256453696656</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.60085938290015</v>
+        <v>41.60085938290018</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.72456129351923</v>
+        <v>32.72456129351926</v>
       </c>
       <c r="C13" t="n">
-        <v>18.92455613891971</v>
+        <v>18.92455613891974</v>
       </c>
       <c r="D13" t="n">
-        <v>2.545920536498102</v>
+        <v>2.54592053649813</v>
       </c>
       <c r="E13" t="n">
-        <v>1.493670392277551</v>
+        <v>1.493670392277579</v>
       </c>
       <c r="F13" t="n">
-        <v>1.96059472046386</v>
+        <v>1.960594720463888</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697626</v>
+        <v>17.96311329697629</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783389</v>
+        <v>6.363700576783417</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.83398394224582</v>
+        <v>57.83398394224584</v>
       </c>
       <c r="T13" t="n">
-        <v>80.68894132961883</v>
+        <v>80.68894132961886</v>
       </c>
       <c r="U13" t="n">
         <v>135.3082370038742</v>
@@ -1591,10 +1591,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X13" t="n">
-        <v>79.9446857595612</v>
+        <v>79.94468575956122</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.81955351562888</v>
+        <v>70.81955351562891</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.1078504188221</v>
       </c>
       <c r="C14" t="n">
-        <v>229.1191673765038</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210318</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>262.3409051157628</v>
       </c>
       <c r="H14" t="n">
-        <v>174.2835417775413</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>22.53425353909792</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>70.46388924261848</v>
       </c>
       <c r="U14" t="n">
         <v>103.2926861902831</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590012</v>
+        <v>42.55043337251669</v>
       </c>
       <c r="W14" t="n">
-        <v>51.29126258684325</v>
+        <v>209.9143271369581</v>
       </c>
       <c r="X14" t="n">
-        <v>229.2145853697047</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.6111831659035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>8.829994649431427</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>11.091382327438</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -1701,7 +1701,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H15" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S15" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
-        <v>36.49439094626072</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U15" t="n">
-        <v>67.29323155474317</v>
+        <v>101.6979298026191</v>
       </c>
       <c r="V15" t="n">
-        <v>77.11641262213251</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>46.9425645369665</v>
       </c>
       <c r="Y15" t="n">
-        <v>156.6818820820453</v>
+        <v>41.6008593829001</v>
       </c>
     </row>
     <row r="16">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224576</v>
+        <v>57.83398394224577</v>
       </c>
       <c r="T16" t="n">
         <v>80.68894132961877</v>
@@ -1859,7 +1859,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H17" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625363</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138995391</v>
+        <v>8.09313613899541</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771349</v>
+        <v>89.41467760771351</v>
       </c>
       <c r="W17" t="n">
         <v>114.7147770856704</v>
@@ -1910,7 +1910,7 @@
         <v>134.015035318417</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4116331146158</v>
+        <v>145.4116331146153</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>104.5332628100769</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>216.28848525876</v>
@@ -1983,13 +1983,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>87.76236920725603</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2002,19 +2002,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>24.01268214412418</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.84766408963812</v>
+        <v>40.10868695258645</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185703</v>
+        <v>13.93314764185706</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247029</v>
+        <v>39.10003371247032</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H20" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625363</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995391</v>
+        <v>8.09313613899541</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771349</v>
+        <v>89.41467760771351</v>
       </c>
       <c r="W20" t="n">
         <v>114.7147770856704</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>69.07079552016111</v>
+        <v>103.6682998249843</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>95.80294554235505</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.10868695258642</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V22" t="n">
-        <v>13.93314764185703</v>
+        <v>13.93314764185706</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247029</v>
+        <v>244.9379239672589</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.8127677588672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H23" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625363</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995391</v>
+        <v>8.093136138995419</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771349</v>
+        <v>89.41467760771351</v>
       </c>
       <c r="W23" t="n">
         <v>114.7147770856704</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>127.8517557917765</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T24" t="n">
         <v>185.4896446502776</v>
@@ -2454,16 +2454,16 @@
         <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>128.5282629834695</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>177.4920632765506</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.10868695258642</v>
+        <v>40.10868695258645</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>13.93314764185706</v>
       </c>
       <c r="W25" t="n">
-        <v>39.10003371247029</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.02750306057861</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2798,7 +2798,7 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E29" t="n">
-        <v>289.7185624727494</v>
+        <v>289.7185624727495</v>
       </c>
       <c r="F29" t="n">
         <v>308.8903785607266</v>
@@ -2810,7 +2810,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629993</v>
+        <v>46.57653758629996</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090998</v>
+        <v>70.41020702090999</v>
       </c>
       <c r="T29" t="n">
-        <v>118.3398427244305</v>
+        <v>118.3398427244306</v>
       </c>
       <c r="U29" t="n">
         <v>151.1686396720952</v>
@@ -2858,7 +2858,7 @@
         <v>277.0905388515168</v>
       </c>
       <c r="Y29" t="n">
-        <v>288.4871366477155</v>
+        <v>288.4871366477156</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533125</v>
       </c>
       <c r="C31" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073173</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831012</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408957</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227588</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878824</v>
+        <v>65.83906677878826</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859541</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554679</v>
+        <v>33.45639417554681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723274</v>
+        <v>34.66887443723276</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3035,19 +3035,19 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7185624727494</v>
+        <v>289.7185624727493</v>
       </c>
       <c r="F32" t="n">
-        <v>308.8903785607266</v>
+        <v>308.8903785607265</v>
       </c>
       <c r="G32" t="n">
         <v>310.2168585975749</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1594952593534</v>
+        <v>222.1594952593533</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629992</v>
+        <v>46.57653758629991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090997</v>
+        <v>70.41020702090995</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
@@ -3086,13 +3086,13 @@
         <v>151.1686396720951</v>
       </c>
       <c r="V32" t="n">
-        <v>232.4901811408133</v>
+        <v>232.4901811408132</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7902806187702</v>
+        <v>257.7902806187701</v>
       </c>
       <c r="X32" t="n">
-        <v>277.0905388515168</v>
+        <v>277.0905388515167</v>
       </c>
       <c r="Y32" t="n">
         <v>288.4871366477155</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533121</v>
+        <v>80.60051477533119</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073169</v>
+        <v>66.80050962073167</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831008</v>
+        <v>50.42187401831006</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408953</v>
+        <v>49.36962387408951</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227584</v>
+        <v>49.83654820227582</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878824</v>
+        <v>65.83906677878822</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859536</v>
+        <v>54.23965405859535</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554676</v>
+        <v>33.45639417554675</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723272</v>
+        <v>34.6688744372327</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
@@ -3247,13 +3247,13 @@
         <v>157.0086511749568</v>
       </c>
       <c r="W34" t="n">
-        <v>182.1755372455701</v>
+        <v>182.17553724557</v>
       </c>
       <c r="X34" t="n">
         <v>127.8206392413732</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.6955069974409</v>
+        <v>118.6955069974408</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>218.5735968797242</v>
       </c>
       <c r="C35" t="n">
-        <v>206.5849138374059</v>
+        <v>206.584913837406</v>
       </c>
       <c r="D35" t="n">
         <v>197.5662178819339</v>
       </c>
       <c r="E35" t="n">
-        <v>219.3083554518394</v>
+        <v>219.3083554518395</v>
       </c>
       <c r="F35" t="n">
         <v>238.4801715398166</v>
@@ -3281,7 +3281,7 @@
         <v>239.8066515766649</v>
       </c>
       <c r="H35" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384435</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570352055</v>
+        <v>47.9296357035206</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118525</v>
       </c>
       <c r="V35" t="n">
         <v>162.0799741199033</v>
@@ -3329,7 +3329,7 @@
         <v>187.3800735978602</v>
       </c>
       <c r="X35" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306069</v>
       </c>
       <c r="Y35" t="n">
         <v>218.0769296268056</v>
@@ -3345,13 +3345,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>140.2784539970649</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>69.22907658355324</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3363,7 +3363,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.19030775442124</v>
+        <v>10.1903077544213</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.29973040314783</v>
+        <v>35.29973040314788</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779052083</v>
+        <v>116.1507645221081</v>
       </c>
       <c r="U37" t="n">
-        <v>284.303490707891</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V37" t="n">
-        <v>86.59844415404683</v>
+        <v>86.59844415404689</v>
       </c>
       <c r="W37" t="n">
-        <v>169.7614069562478</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046326</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.28529997653089</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>206.584913837406</v>
       </c>
       <c r="D38" t="n">
-        <v>197.566217881934</v>
+        <v>197.5662178819339</v>
       </c>
       <c r="E38" t="n">
         <v>219.3083554518395</v>
       </c>
       <c r="F38" t="n">
-        <v>238.4801715398167</v>
+        <v>238.4801715398166</v>
       </c>
       <c r="G38" t="n">
-        <v>239.806651576665</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H38" t="n">
         <v>151.7492882384435</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.92963570352063</v>
+        <v>47.9296357035206</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118527</v>
+        <v>80.75843265118525</v>
       </c>
       <c r="V38" t="n">
-        <v>162.0799741199034</v>
+        <v>162.0799741199033</v>
       </c>
       <c r="W38" t="n">
-        <v>187.3800735978603</v>
+        <v>187.3800735978602</v>
       </c>
       <c r="X38" t="n">
         <v>206.6803318306069</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.0769296268057</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>19.47429228221175</v>
+        <v>75.99476350796554</v>
       </c>
       <c r="I39" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.19030775442133</v>
+        <v>10.1903077544213</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>42.63581932673238</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>57.99607673158711</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29973040314791</v>
+        <v>35.29973040314788</v>
       </c>
       <c r="T40" t="n">
-        <v>58.15468779052092</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U40" t="n">
         <v>112.7739834647763</v>
       </c>
       <c r="V40" t="n">
-        <v>86.59844415404692</v>
+        <v>86.59844415404689</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X40" t="n">
-        <v>57.41043222046329</v>
+        <v>57.41043222046326</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.28529997653098</v>
+        <v>48.28529997653095</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.92963570352057</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118522</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V41" t="n">
         <v>162.0799741199033</v>
@@ -3834,7 +3834,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H42" t="n">
-        <v>58.50331163614707</v>
+        <v>19.47429228221086</v>
       </c>
       <c r="I42" t="n">
         <v>56.52047122575468</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S42" t="n">
         <v>145.2410726443114</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442127</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>57.99607673158742</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314785</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052086</v>
+        <v>116.1507645221084</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7739834647763</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V43" t="n">
-        <v>86.59844415404686</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046324</v>
+        <v>57.41043222046321</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.28529997653092</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>218.5735968797242</v>
       </c>
       <c r="C44" t="n">
-        <v>206.584913837406</v>
+        <v>206.5849138374059</v>
       </c>
       <c r="D44" t="n">
         <v>197.5662178819339</v>
       </c>
       <c r="E44" t="n">
-        <v>219.3083554518395</v>
+        <v>219.3083554518394</v>
       </c>
       <c r="F44" t="n">
         <v>238.4801715398166</v>
       </c>
       <c r="G44" t="n">
-        <v>239.806651576665</v>
+        <v>239.8066515766658</v>
       </c>
       <c r="H44" t="n">
-        <v>151.7492882384435</v>
+        <v>151.7492882384434</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352061</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118523</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V44" t="n">
         <v>162.0799741199033</v>
@@ -4040,7 +4040,7 @@
         <v>187.3800735978602</v>
       </c>
       <c r="X44" t="n">
-        <v>206.6803318306069</v>
+        <v>206.6803318306068</v>
       </c>
       <c r="Y44" t="n">
         <v>218.0769296268056</v>
@@ -4068,10 +4068,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1165548494722</v>
+        <v>107.3083728150826</v>
       </c>
       <c r="H45" t="n">
-        <v>75.99476350796641</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.1903077544213</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>17.78282957148373</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010343</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.99607673158767</v>
       </c>
       <c r="S46" t="n">
-        <v>35.29973040314788</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052089</v>
+        <v>58.15468779052083</v>
       </c>
       <c r="U46" t="n">
-        <v>112.7739834647763</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V46" t="n">
-        <v>86.59844415404689</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W46" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046326</v>
+        <v>57.41043222046321</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>763.7595568432716</v>
+        <v>515.9697239246195</v>
       </c>
       <c r="C11" t="n">
-        <v>693.3535843431948</v>
+        <v>515.9697239246195</v>
       </c>
       <c r="D11" t="n">
-        <v>471.0298758371021</v>
+        <v>293.6460154185266</v>
       </c>
       <c r="E11" t="n">
-        <v>471.0298758371021</v>
+        <v>293.6460154185266</v>
       </c>
       <c r="F11" t="n">
-        <v>471.0298758371021</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="G11" t="n">
-        <v>206.0390625888567</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J11" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="K11" t="n">
-        <v>71.64548705242839</v>
+        <v>283.5313607309287</v>
       </c>
       <c r="L11" t="n">
-        <v>442.8346143702627</v>
+        <v>654.7204880487632</v>
       </c>
       <c r="M11" t="n">
-        <v>814.0237416880969</v>
+        <v>654.7204880487632</v>
       </c>
       <c r="N11" t="n">
-        <v>814.0237416880969</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="O11" t="n">
-        <v>1185.212869005931</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="P11" t="n">
-        <v>1499.754049769027</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S11" t="n">
-        <v>1476.992177507312</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T11" t="n">
         <v>1405.816531807698</v>
       </c>
       <c r="U11" t="n">
-        <v>1405.816531807698</v>
+        <v>1301.480485150847</v>
       </c>
       <c r="V11" t="n">
-        <v>1219.337513970323</v>
+        <v>1115.001467313472</v>
       </c>
       <c r="W11" t="n">
-        <v>1007.302840094607</v>
+        <v>902.9667934377563</v>
       </c>
       <c r="X11" t="n">
-        <v>1007.302840094607</v>
+        <v>759.5130071759551</v>
       </c>
       <c r="Y11" t="n">
-        <v>1007.302840094607</v>
+        <v>759.5130071759551</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>636.9260795332432</v>
+        <v>228.6406646863651</v>
       </c>
       <c r="C12" t="n">
-        <v>475.2224067741979</v>
+        <v>217.4372481940034</v>
       </c>
       <c r="D12" t="n">
-        <v>336.38376976441</v>
+        <v>78.59861118421546</v>
       </c>
       <c r="E12" t="n">
-        <v>189.3557598212812</v>
+        <v>78.59861118421546</v>
       </c>
       <c r="F12" t="n">
-        <v>126.7657330583655</v>
+        <v>78.59861118421546</v>
       </c>
       <c r="G12" t="n">
-        <v>126.7657330583655</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="H12" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I12" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J12" t="n">
-        <v>29.99508099538055</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>311.3868694948438</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L12" t="n">
-        <v>682.5759968126781</v>
+        <v>187.3868833520198</v>
       </c>
       <c r="M12" t="n">
-        <v>682.5759968126781</v>
+        <v>558.5760106698542</v>
       </c>
       <c r="N12" t="n">
-        <v>682.5759968126781</v>
+        <v>929.7651379876886</v>
       </c>
       <c r="O12" t="n">
-        <v>937.4824596098524</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P12" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R12" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S12" t="n">
-        <v>1460.330797896366</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="T12" t="n">
-        <v>1272.967520471843</v>
+        <v>1165.682618158332</v>
       </c>
       <c r="U12" t="n">
-        <v>1054.494303038752</v>
+        <v>947.2094007252415</v>
       </c>
       <c r="V12" t="n">
-        <v>976.5989367537697</v>
+        <v>718.8137781735754</v>
       </c>
       <c r="W12" t="n">
-        <v>885.7833242537635</v>
+        <v>627.998165673569</v>
       </c>
       <c r="X12" t="n">
-        <v>838.3665923982417</v>
+        <v>430.0811775513636</v>
       </c>
       <c r="Y12" t="n">
-        <v>796.3455223145041</v>
+        <v>388.060107467626</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853086</v>
+        <v>79.74412711853111</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62841384689477</v>
+        <v>60.62841384689501</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134113</v>
+        <v>58.05677694134134</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54801896934359</v>
+        <v>56.54801896934379</v>
       </c>
       <c r="F13" t="n">
-        <v>54.56762026180434</v>
+        <v>54.56762026180451</v>
       </c>
       <c r="G13" t="n">
-        <v>36.42306137596983</v>
+        <v>36.42306137596987</v>
       </c>
       <c r="H13" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I13" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J13" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="K13" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L13" t="n">
         <v>235.5746640210047</v>
@@ -5215,34 +5215,34 @@
         <v>692.0159524237212</v>
       </c>
       <c r="P13" t="n">
-        <v>787.5746769178752</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q13" t="n">
-        <v>787.5746769178752</v>
+        <v>787.5746769178759</v>
       </c>
       <c r="R13" t="n">
-        <v>787.5746769178752</v>
+        <v>787.5746769178759</v>
       </c>
       <c r="S13" t="n">
-        <v>729.1565113196471</v>
+        <v>729.1565113196477</v>
       </c>
       <c r="T13" t="n">
-        <v>647.6525301786181</v>
+        <v>647.6525301786186</v>
       </c>
       <c r="U13" t="n">
-        <v>510.9775433060179</v>
+        <v>510.9775433060183</v>
       </c>
       <c r="V13" t="n">
-        <v>400.7424951311242</v>
+        <v>400.7424951311245</v>
       </c>
       <c r="W13" t="n">
-        <v>265.0863499152069</v>
+        <v>265.0863499152073</v>
       </c>
       <c r="X13" t="n">
-        <v>184.3341420772663</v>
+        <v>184.3341420772666</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.799239536227</v>
+        <v>112.7992395362273</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>659.7962734954583</v>
+        <v>802.9222922939812</v>
       </c>
       <c r="C14" t="n">
-        <v>428.3627710949494</v>
+        <v>802.9222922939812</v>
       </c>
       <c r="D14" t="n">
-        <v>206.0390625888567</v>
+        <v>802.9222922939812</v>
       </c>
       <c r="E14" t="n">
-        <v>206.0390625888567</v>
+        <v>558.6368286667717</v>
       </c>
       <c r="F14" t="n">
-        <v>206.0390625888567</v>
+        <v>294.9858942436258</v>
       </c>
       <c r="G14" t="n">
-        <v>206.0390625888567</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="H14" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I14" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J14" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K14" t="n">
-        <v>346.5492874464848</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L14" t="n">
-        <v>442.8346143702627</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="M14" t="n">
-        <v>442.8346143702627</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="N14" t="n">
-        <v>814.0237416880969</v>
+        <v>969.2616688118594</v>
       </c>
       <c r="O14" t="n">
-        <v>1185.212869005931</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="P14" t="n">
-        <v>1499.754049769027</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S14" t="n">
-        <v>1476.992177507312</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T14" t="n">
-        <v>1476.992177507312</v>
+        <v>1405.816531807698</v>
       </c>
       <c r="U14" t="n">
-        <v>1372.656130850461</v>
+        <v>1301.480485150847</v>
       </c>
       <c r="V14" t="n">
-        <v>1186.177113013086</v>
+        <v>1258.500249421032</v>
       </c>
       <c r="W14" t="n">
-        <v>1134.367756864759</v>
+        <v>1046.465575545317</v>
       </c>
       <c r="X14" t="n">
-        <v>902.8378726529365</v>
+        <v>1046.465575545317</v>
       </c>
       <c r="Y14" t="n">
-        <v>659.7962734954583</v>
+        <v>1046.465575545317</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>563.8979762145518</v>
+        <v>455.4657048946711</v>
       </c>
       <c r="C15" t="n">
-        <v>402.1943034555065</v>
+        <v>444.2622884023095</v>
       </c>
       <c r="D15" t="n">
-        <v>402.1943034555065</v>
+        <v>305.4236513925216</v>
       </c>
       <c r="E15" t="n">
-        <v>255.1662935123778</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="F15" t="n">
-        <v>255.1662935123778</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="G15" t="n">
-        <v>126.7657330583655</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="H15" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I15" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="K15" t="n">
-        <v>402.007545711735</v>
+        <v>311.3868694948438</v>
       </c>
       <c r="L15" t="n">
-        <v>773.1966730295692</v>
+        <v>682.5759968126783</v>
       </c>
       <c r="M15" t="n">
-        <v>937.4824596098524</v>
+        <v>682.5759968126783</v>
       </c>
       <c r="N15" t="n">
-        <v>937.4824596098524</v>
+        <v>929.7651379876886</v>
       </c>
       <c r="O15" t="n">
-        <v>937.4824596098524</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P15" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R15" t="n">
-        <v>1499.754049769027</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S15" t="n">
-        <v>1353.045895582854</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T15" t="n">
-        <v>1316.182874425015</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U15" t="n">
-        <v>1248.209913258608</v>
+        <v>1023.534184666864</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.314546973626</v>
+        <v>795.1385621151975</v>
       </c>
       <c r="W15" t="n">
-        <v>928.9986782069358</v>
+        <v>553.8226933485075</v>
       </c>
       <c r="X15" t="n">
-        <v>731.0816900847303</v>
+        <v>506.4059614929858</v>
       </c>
       <c r="Y15" t="n">
-        <v>572.817162729129</v>
+        <v>464.3848914092483</v>
       </c>
     </row>
     <row r="16">
@@ -5410,67 +5410,67 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853059</v>
+        <v>79.74412711853057</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689457</v>
+        <v>60.62841384689455</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134098</v>
+        <v>58.05677694134096</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934352</v>
+        <v>56.54801896934347</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180432</v>
+        <v>54.56762026180428</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596977</v>
+        <v>36.42306137596979</v>
       </c>
       <c r="H16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="K16" t="n">
         <v>94.90588907899621</v>
       </c>
       <c r="L16" t="n">
-        <v>235.5746640210043</v>
+        <v>235.5746640210047</v>
       </c>
       <c r="M16" t="n">
-        <v>395.8076110331833</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N16" t="n">
-        <v>555.4650341729183</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O16" t="n">
-        <v>692.0159524237207</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P16" t="n">
-        <v>787.5746769178746</v>
+        <v>787.5746769178749</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178746</v>
+        <v>787.5746769178749</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178746</v>
+        <v>787.5746769178749</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196466</v>
+        <v>729.1565113196468</v>
       </c>
       <c r="T16" t="n">
-        <v>647.6525301786176</v>
+        <v>647.6525301786178</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060174</v>
+        <v>510.9775433060173</v>
       </c>
       <c r="V16" t="n">
-        <v>400.7424951311237</v>
+        <v>400.7424951311236</v>
       </c>
       <c r="W16" t="n">
         <v>265.0863499152065</v>
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862538</v>
+        <v>855.7565147862549</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537124</v>
+        <v>720.4841740537133</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155871</v>
+        <v>594.3216272155879</v>
       </c>
       <c r="E17" t="n">
-        <v>446.197325256345</v>
+        <v>446.1973252563457</v>
       </c>
       <c r="F17" t="n">
-        <v>278.7075525011664</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208892</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H17" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I17" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J17" t="n">
         <v>152.9789828377824</v>
       </c>
       <c r="K17" t="n">
-        <v>152.9789828377824</v>
+        <v>283.5313607309287</v>
       </c>
       <c r="L17" t="n">
-        <v>524.1681101556167</v>
+        <v>654.7204880487632</v>
       </c>
       <c r="M17" t="n">
-        <v>654.7204880487626</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="N17" t="n">
-        <v>1025.909615366597</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="O17" t="n">
-        <v>1025.909615366597</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="P17" t="n">
-        <v>1340.450796129693</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U17" t="n">
         <v>1491.579164780144</v>
@@ -5558,7 +5558,7 @@
         <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
-        <v>1003.138636369622</v>
+        <v>1003.138636369623</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>578.9560864524352</v>
+        <v>168.8337180051685</v>
       </c>
       <c r="C18" t="n">
-        <v>578.9560864524352</v>
+        <v>168.8337180051685</v>
       </c>
       <c r="D18" t="n">
-        <v>440.1174494426473</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="E18" t="n">
-        <v>293.0894394995185</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="F18" t="n">
-        <v>158.3956414493929</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="G18" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="H18" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I18" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J18" t="n">
         <v>120.6157572122717</v>
       </c>
       <c r="K18" t="n">
-        <v>402.007545711735</v>
+        <v>195.1042049741843</v>
       </c>
       <c r="L18" t="n">
-        <v>402.007545711735</v>
+        <v>195.1042049741843</v>
       </c>
       <c r="M18" t="n">
-        <v>566.2933322920181</v>
+        <v>566.2933322920187</v>
       </c>
       <c r="N18" t="n">
-        <v>937.4824596098524</v>
+        <v>566.2933322920187</v>
       </c>
       <c r="O18" t="n">
-        <v>937.4824596098524</v>
+        <v>937.4824596098531</v>
       </c>
       <c r="P18" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R18" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S18" t="n">
-        <v>1499.754049769027</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="T18" t="n">
-        <v>1312.390772344505</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="U18" t="n">
-        <v>1093.917554911414</v>
+        <v>1134.572678149764</v>
       </c>
       <c r="V18" t="n">
-        <v>865.5219323597478</v>
+        <v>906.1770555980981</v>
       </c>
       <c r="W18" t="n">
-        <v>776.8730745746407</v>
+        <v>664.8611868314082</v>
       </c>
       <c r="X18" t="n">
-        <v>578.9560864524352</v>
+        <v>466.9441987092027</v>
       </c>
       <c r="Y18" t="n">
-        <v>578.9560864524352</v>
+        <v>274.4228723587815</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.1295653608029</v>
+        <v>54.25031548439489</v>
       </c>
       <c r="C19" t="n">
-        <v>503.1295653608029</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="D19" t="n">
-        <v>503.1295653608029</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="E19" t="n">
-        <v>351.1205511221217</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="F19" t="n">
-        <v>198.6398961478988</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="G19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="H19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="K19" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L19" t="n">
         <v>235.5746640210047</v>
@@ -5692,31 +5692,31 @@
         <v>787.5746769178751</v>
       </c>
       <c r="Q19" t="n">
-        <v>787.5746769178751</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R19" t="n">
-        <v>787.5746769178751</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="S19" t="n">
-        <v>787.5746769178751</v>
+        <v>563.1408435329079</v>
       </c>
       <c r="T19" t="n">
-        <v>787.5746769178751</v>
+        <v>563.1408435329079</v>
       </c>
       <c r="U19" t="n">
-        <v>740.2538041000588</v>
+        <v>522.6270183282751</v>
       </c>
       <c r="V19" t="n">
-        <v>726.1799175931325</v>
+        <v>508.5531318213488</v>
       </c>
       <c r="W19" t="n">
-        <v>686.6849340451827</v>
+        <v>469.058148273399</v>
       </c>
       <c r="X19" t="n">
-        <v>686.6849340451827</v>
+        <v>237.8056841687747</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.6849340451827</v>
+        <v>237.8056841687747</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862539</v>
+        <v>855.7565147862542</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537124</v>
+        <v>720.4841740537126</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155871</v>
+        <v>594.3216272155873</v>
       </c>
       <c r="E20" t="n">
-        <v>446.197325256345</v>
+        <v>446.1973252563453</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7075525011664</v>
+        <v>278.7075525011667</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208892</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H20" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I20" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J20" t="n">
         <v>152.9789828377824</v>
       </c>
       <c r="K20" t="n">
-        <v>469.5331892888867</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="L20" t="n">
-        <v>840.7223166067209</v>
+        <v>524.1681101556169</v>
       </c>
       <c r="M20" t="n">
-        <v>840.7223166067209</v>
+        <v>524.1681101556169</v>
       </c>
       <c r="N20" t="n">
-        <v>840.7223166067209</v>
+        <v>895.3572374734513</v>
       </c>
       <c r="O20" t="n">
-        <v>1025.909615366597</v>
+        <v>1266.546364791286</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.450796129693</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U20" t="n">
         <v>1491.579164780144</v>
       </c>
       <c r="V20" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X20" t="n">
         <v>1150.019073859133</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>459.6285718858985</v>
+        <v>517.3478343799532</v>
       </c>
       <c r="C21" t="n">
-        <v>389.8600915625034</v>
+        <v>412.6323800112822</v>
       </c>
       <c r="D21" t="n">
-        <v>389.8600915625034</v>
+        <v>273.7937430014942</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8600915625034</v>
+        <v>126.7657330583655</v>
       </c>
       <c r="F21" t="n">
-        <v>255.1662935123778</v>
+        <v>126.7657330583655</v>
       </c>
       <c r="G21" t="n">
         <v>126.7657330583655</v>
       </c>
       <c r="H21" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I21" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J21" t="n">
         <v>120.6157572122717</v>
@@ -5835,46 +5835,46 @@
         <v>402.007545711735</v>
       </c>
       <c r="L21" t="n">
-        <v>773.1966730295692</v>
+        <v>566.2933322920187</v>
       </c>
       <c r="M21" t="n">
-        <v>1144.385800347403</v>
+        <v>566.2933322920187</v>
       </c>
       <c r="N21" t="n">
-        <v>1144.385800347403</v>
+        <v>937.4824596098531</v>
       </c>
       <c r="O21" t="n">
-        <v>1499.754049769027</v>
+        <v>937.4824596098531</v>
       </c>
       <c r="P21" t="n">
-        <v>1499.754049769027</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R21" t="n">
-        <v>1499.754049769027</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S21" t="n">
-        <v>1499.754049769027</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T21" t="n">
-        <v>1499.754049769027</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U21" t="n">
-        <v>1281.280832335937</v>
+        <v>907.7861488525798</v>
       </c>
       <c r="V21" t="n">
-        <v>1052.885209784271</v>
+        <v>907.7861488525798</v>
       </c>
       <c r="W21" t="n">
-        <v>811.5693410175805</v>
+        <v>907.7861488525798</v>
       </c>
       <c r="X21" t="n">
-        <v>811.5693410175805</v>
+        <v>709.8691607303743</v>
       </c>
       <c r="Y21" t="n">
-        <v>619.0480146671594</v>
+        <v>517.3478343799532</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.0669741676178</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="C22" t="n">
-        <v>183.0669741676178</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="D22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="E22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="F22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="G22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="H22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="I22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="J22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="K22" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L22" t="n">
         <v>235.5746640210047</v>
@@ -5932,28 +5932,28 @@
         <v>787.5746769178751</v>
       </c>
       <c r="R22" t="n">
-        <v>650.4149045346048</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="S22" t="n">
-        <v>650.4149045346048</v>
+        <v>578.6562550529634</v>
       </c>
       <c r="T22" t="n">
-        <v>650.4149045346048</v>
+        <v>578.6562550529634</v>
       </c>
       <c r="U22" t="n">
-        <v>609.901079329972</v>
+        <v>291.4810119136795</v>
       </c>
       <c r="V22" t="n">
-        <v>595.8271928230457</v>
+        <v>277.4071254067532</v>
       </c>
       <c r="W22" t="n">
-        <v>556.3322092750959</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="X22" t="n">
-        <v>556.3322092750959</v>
+        <v>29.99508099538056</v>
       </c>
       <c r="Y22" t="n">
-        <v>366.6223428519977</v>
+        <v>29.99508099538056</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>109.8779009208893</v>
       </c>
       <c r="H23" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="I23" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="J23" t="n">
         <v>152.9789828377825</v>
       </c>
       <c r="K23" t="n">
-        <v>469.5331892888867</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="L23" t="n">
-        <v>654.7204880487636</v>
+        <v>524.1681101556172</v>
       </c>
       <c r="M23" t="n">
-        <v>654.7204880487636</v>
+        <v>895.357237473452</v>
       </c>
       <c r="N23" t="n">
-        <v>1025.909615366598</v>
+        <v>895.357237473452</v>
       </c>
       <c r="O23" t="n">
-        <v>1025.909615366598</v>
+        <v>1266.546364791287</v>
       </c>
       <c r="P23" t="n">
-        <v>1340.450796129694</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="Q23" t="n">
         <v>1499.754049769029</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>574.3360527703275</v>
+        <v>338.7267636975547</v>
       </c>
       <c r="C24" t="n">
-        <v>412.6323800112822</v>
+        <v>177.0230909385094</v>
       </c>
       <c r="D24" t="n">
-        <v>273.7937430014942</v>
+        <v>177.0230909385094</v>
       </c>
       <c r="E24" t="n">
-        <v>126.7657330583655</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="F24" t="n">
-        <v>126.7657330583655</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="G24" t="n">
-        <v>126.7657330583655</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="H24" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="I24" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="J24" t="n">
-        <v>29.99508099538058</v>
+        <v>120.6157572122718</v>
       </c>
       <c r="K24" t="n">
-        <v>311.3868694948438</v>
+        <v>402.007545711735</v>
       </c>
       <c r="L24" t="n">
-        <v>566.2933322920192</v>
+        <v>765.0931167555246</v>
       </c>
       <c r="M24" t="n">
-        <v>566.2933322920192</v>
+        <v>765.0931167555246</v>
       </c>
       <c r="N24" t="n">
-        <v>937.4824596098538</v>
+        <v>765.0931167555246</v>
       </c>
       <c r="O24" t="n">
-        <v>937.4824596098538</v>
+        <v>1136.282244073359</v>
       </c>
       <c r="P24" t="n">
-        <v>1300.954265305524</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="Q24" t="n">
         <v>1499.754049769029</v>
       </c>
       <c r="R24" t="n">
-        <v>1499.754049769029</v>
+        <v>1460.330797896368</v>
       </c>
       <c r="S24" t="n">
-        <v>1499.754049769029</v>
+        <v>1313.622643710195</v>
       </c>
       <c r="T24" t="n">
-        <v>1312.390772344506</v>
+        <v>1126.259366285672</v>
       </c>
       <c r="U24" t="n">
-        <v>1093.917554911415</v>
+        <v>907.7861488525809</v>
       </c>
       <c r="V24" t="n">
-        <v>1093.917554911415</v>
+        <v>777.9596205864501</v>
       </c>
       <c r="W24" t="n">
-        <v>1093.917554911415</v>
+        <v>536.6437518197602</v>
       </c>
       <c r="X24" t="n">
-        <v>896.0005667892098</v>
+        <v>338.7267636975547</v>
       </c>
       <c r="Y24" t="n">
-        <v>703.4792404387886</v>
+        <v>338.7267636975547</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.6110505337003</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="C25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="D25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="E25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="F25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="G25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="H25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="I25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="J25" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538059</v>
       </c>
       <c r="K25" t="n">
-        <v>94.90588907899624</v>
+        <v>94.90588907899625</v>
       </c>
       <c r="L25" t="n">
-        <v>235.5746640210047</v>
+        <v>235.5746640210048</v>
       </c>
       <c r="M25" t="n">
         <v>395.8076110331838</v>
@@ -6166,31 +6166,31 @@
         <v>787.5746769178751</v>
       </c>
       <c r="Q25" t="n">
-        <v>787.5746769178751</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R25" t="n">
-        <v>787.5746769178751</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="S25" t="n">
-        <v>787.5746769178751</v>
+        <v>592.7743529972635</v>
       </c>
       <c r="T25" t="n">
-        <v>787.5746769178751</v>
+        <v>592.7743529972635</v>
       </c>
       <c r="U25" t="n">
-        <v>747.0608517132423</v>
+        <v>552.2605277926307</v>
       </c>
       <c r="V25" t="n">
-        <v>486.3255472716649</v>
+        <v>538.1866412857044</v>
       </c>
       <c r="W25" t="n">
-        <v>446.8305637237151</v>
+        <v>252.0302398031035</v>
       </c>
       <c r="X25" t="n">
-        <v>446.8305637237151</v>
+        <v>252.0302398031035</v>
       </c>
       <c r="Y25" t="n">
-        <v>383.1664192180801</v>
+        <v>29.99508099538059</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J26" t="n">
-        <v>293.3310115116684</v>
+        <v>193.2229042916856</v>
       </c>
       <c r="K26" t="n">
-        <v>709.9933251827554</v>
+        <v>609.8852179627726</v>
       </c>
       <c r="L26" t="n">
-        <v>1252.784924042173</v>
+        <v>1152.676816822191</v>
       </c>
       <c r="M26" t="n">
         <v>1751.505262829082</v>
@@ -6251,7 +6251,7 @@
         <v>3511.950122464183</v>
       </c>
       <c r="S26" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T26" t="n">
         <v>3321.293506559799</v>
@@ -6382,10 +6382,10 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J28" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807635</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843619</v>
       </c>
       <c r="L28" t="n">
         <v>536.3317924463532</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.6953988904</v>
+        <v>1259.695398890399</v>
       </c>
       <c r="E29" t="n">
-        <v>967.050386291663</v>
+        <v>967.0503862916621</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969896</v>
+        <v>655.0399028969891</v>
       </c>
       <c r="G29" t="n">
-        <v>341.689540677217</v>
+        <v>341.6895406772165</v>
       </c>
       <c r="H29" t="n">
         <v>117.2860101122129</v>
@@ -6461,22 +6461,22 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J29" t="n">
-        <v>238.7520384747846</v>
+        <v>293.3310115116683</v>
       </c>
       <c r="K29" t="n">
-        <v>655.4143521458716</v>
+        <v>709.9933251827553</v>
       </c>
       <c r="L29" t="n">
-        <v>1198.20595100529</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M29" t="n">
-        <v>1797.034397012181</v>
+        <v>1751.505262829082</v>
       </c>
       <c r="N29" t="n">
-        <v>2382.661831102468</v>
+        <v>2337.132696919369</v>
       </c>
       <c r="O29" t="n">
-        <v>2788.880974437192</v>
+        <v>2843.459947474075</v>
       </c>
       <c r="P29" t="n">
         <v>3203.53026242027</v>
@@ -6488,25 +6488,25 @@
         <v>3511.950122464183</v>
       </c>
       <c r="S29" t="n">
-        <v>3440.828701230941</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559799</v>
+        <v>3321.293506559798</v>
       </c>
       <c r="U29" t="n">
         <v>3168.597910931419</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122517</v>
+        <v>2933.759344122516</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X29" t="n">
         <v>2393.475688091924</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>877.8609290664431</v>
       </c>
       <c r="M30" t="n">
-        <v>920.4989247619702</v>
+        <v>1444.333139632157</v>
       </c>
       <c r="N30" t="n">
         <v>1515.358872157957</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.939679952655</v>
+        <v>443.9396799526551</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094916</v>
+        <v>376.4644177094917</v>
       </c>
       <c r="D31" t="n">
-        <v>325.5332318324107</v>
+        <v>325.5332318324108</v>
       </c>
       <c r="E31" t="n">
         <v>275.6649248888859</v>
@@ -6622,13 +6622,13 @@
         <v>130.535994980764</v>
       </c>
       <c r="K31" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L31" t="n">
         <v>536.3317924463536</v>
       </c>
       <c r="M31" t="n">
-        <v>796.6728466785154</v>
+        <v>796.6728466785155</v>
       </c>
       <c r="N31" t="n">
         <v>1056.438377038233</v>
@@ -6640,31 +6640,31 @@
         <v>1488.764234223155</v>
       </c>
       <c r="Q31" t="n">
-        <v>1573.665686612332</v>
+        <v>1573.665686612331</v>
       </c>
       <c r="R31" t="n">
         <v>1538.646621524218</v>
       </c>
       <c r="S31" t="n">
-        <v>1431.868906954463</v>
+        <v>1431.868906954462</v>
       </c>
       <c r="T31" t="n">
         <v>1302.005376841906</v>
       </c>
       <c r="U31" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.970840997779</v>
       </c>
       <c r="V31" t="n">
-        <v>958.3762438513575</v>
+        <v>958.3762438513578</v>
       </c>
       <c r="W31" t="n">
-        <v>774.3605496639129</v>
+        <v>774.3605496639133</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544449</v>
+        <v>645.2487928544454</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.3543413418784</v>
+        <v>525.3543413418786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1810.171707740055</v>
+        <v>1810.171707740056</v>
       </c>
       <c r="C32" t="n">
         <v>1530.378656368019</v>
@@ -6683,10 +6683,10 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916623</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969887</v>
+        <v>655.0399028969891</v>
       </c>
       <c r="G32" t="n">
         <v>341.6895406772162</v>
@@ -6698,49 +6698,49 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J32" t="n">
-        <v>293.3310115116683</v>
+        <v>293.3310115116684</v>
       </c>
       <c r="K32" t="n">
-        <v>609.8852179627725</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L32" t="n">
-        <v>1152.67681682219</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M32" t="n">
         <v>1751.505262829082</v>
       </c>
       <c r="N32" t="n">
-        <v>2331.562223067081</v>
+        <v>2337.132696919369</v>
       </c>
       <c r="O32" t="n">
-        <v>2837.889473621787</v>
+        <v>2788.880974437191</v>
       </c>
       <c r="P32" t="n">
-        <v>3252.538761604866</v>
+        <v>3203.53026242027</v>
       </c>
       <c r="Q32" t="n">
-        <v>3511.950122464183</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R32" t="n">
         <v>3511.950122464183</v>
       </c>
       <c r="S32" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T32" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.597910931418</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V32" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W32" t="n">
         <v>2673.365121275274</v>
       </c>
       <c r="X32" t="n">
-        <v>2393.475688091923</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y32" t="n">
         <v>2102.074539962918</v>
@@ -6777,16 +6777,16 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J33" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="K33" t="n">
-        <v>442.2514671656381</v>
+        <v>351.6307909487469</v>
       </c>
       <c r="L33" t="n">
-        <v>877.8609290664431</v>
+        <v>787.2402528495518</v>
       </c>
       <c r="M33" t="n">
-        <v>920.4989247619702</v>
+        <v>1353.712463415266</v>
       </c>
       <c r="N33" t="n">
         <v>1515.358872157957</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526549</v>
+        <v>443.9396799526548</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094916</v>
+        <v>376.4644177094915</v>
       </c>
       <c r="D34" t="n">
         <v>325.5332318324106</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888859</v>
+        <v>275.6649248888858</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098194</v>
+        <v>225.3249772098193</v>
       </c>
       <c r="G34" t="n">
         <v>158.8208693524575</v>
@@ -6862,10 +6862,10 @@
         <v>295.5549102843624</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463532</v>
+        <v>536.3317924463538</v>
       </c>
       <c r="M34" t="n">
-        <v>796.672846678515</v>
+        <v>796.6728466785156</v>
       </c>
       <c r="N34" t="n">
         <v>1056.438377038233</v>
@@ -6892,16 +6892,16 @@
         <v>1116.970840997778</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513572</v>
+        <v>958.3762438513571</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639127</v>
+        <v>774.3605496639126</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544449</v>
+        <v>645.2487928544448</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418784</v>
+        <v>525.3543413418782</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.115623597501</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C35" t="n">
         <v>1106.443993458708</v>
@@ -6920,10 +6920,10 @@
         <v>906.8821572143302</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488358</v>
+        <v>685.3585658488357</v>
       </c>
       <c r="F35" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G35" t="n">
         <v>202.2405627008748</v>
@@ -6950,10 +6950,10 @@
         <v>1915.419718959268</v>
       </c>
       <c r="O35" t="n">
-        <v>2321.638862293991</v>
+        <v>2133.381487692593</v>
       </c>
       <c r="P35" t="n">
-        <v>2321.638862293991</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q35" t="n">
         <v>2447.922668455689</v>
@@ -6965,13 +6965,13 @@
         <v>2447.922668455689</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U35" t="n">
         <v>2317.934720622653</v>
       </c>
       <c r="V35" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W35" t="n">
         <v>1964.944773432993</v>
@@ -6980,7 +6980,7 @@
         <v>1756.176761482885</v>
       </c>
       <c r="Y35" t="n">
-        <v>1535.897034587121</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>836.3855189669966</v>
+        <v>836.3855189669971</v>
       </c>
       <c r="C36" t="n">
-        <v>694.6901108891533</v>
+        <v>674.6818462079518</v>
       </c>
       <c r="D36" t="n">
-        <v>555.8514738793654</v>
+        <v>535.8432091981639</v>
       </c>
       <c r="E36" t="n">
-        <v>408.8234639362366</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F36" t="n">
-        <v>274.129665886111</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G36" t="n">
-        <v>145.7291054320987</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H36" t="n">
-        <v>48.95845336911378</v>
+        <v>106.0498384456337</v>
       </c>
       <c r="I36" t="n">
         <v>48.95845336911378</v>
       </c>
       <c r="J36" t="n">
-        <v>48.95845336911378</v>
+        <v>139.579129586005</v>
       </c>
       <c r="K36" t="n">
-        <v>330.350241868577</v>
+        <v>420.9709180854682</v>
       </c>
       <c r="L36" t="n">
-        <v>765.959703769382</v>
+        <v>856.5803799862731</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.431914335096</v>
+        <v>1384.390316083254</v>
       </c>
       <c r="N36" t="n">
-        <v>1927.291861731082</v>
+        <v>1979.250263479241</v>
       </c>
       <c r="O36" t="n">
-        <v>2395.964266707531</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="P36" t="n">
-        <v>2395.964266707531</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q36" t="n">
         <v>2447.922668455689</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583028</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.791262396854</v>
+        <v>2261.791262396855</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972331</v>
+        <v>2074.427984972332</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.95476753924</v>
+        <v>1855.954767539241</v>
       </c>
       <c r="V36" t="n">
-        <v>1627.559144987574</v>
+        <v>1627.559144987575</v>
       </c>
       <c r="W36" t="n">
-        <v>1386.243276220884</v>
+        <v>1386.243276220885</v>
       </c>
       <c r="X36" t="n">
         <v>1188.326288098679</v>
       </c>
       <c r="Y36" t="n">
-        <v>995.8049617482576</v>
+        <v>995.8049617482581</v>
       </c>
     </row>
     <row r="37">
@@ -7099,7 +7099,7 @@
         <v>113.8692614527294</v>
       </c>
       <c r="L37" t="n">
-        <v>254.5380363947379</v>
+        <v>254.538036394738</v>
       </c>
       <c r="M37" t="n">
         <v>414.770983406917</v>
@@ -7120,25 +7120,25 @@
         <v>806.5380492916083</v>
       </c>
       <c r="S37" t="n">
-        <v>770.8817559550954</v>
+        <v>770.8817559550953</v>
       </c>
       <c r="T37" t="n">
-        <v>712.1396470757815</v>
+        <v>653.5577513873093</v>
       </c>
       <c r="U37" t="n">
-        <v>424.9644039364976</v>
+        <v>539.6446367764241</v>
       </c>
       <c r="V37" t="n">
-        <v>337.491228023319</v>
+        <v>452.1714608632455</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0150593806444</v>
+        <v>339.2771879090433</v>
       </c>
       <c r="X37" t="n">
-        <v>108.024723804419</v>
+        <v>281.2868523328178</v>
       </c>
       <c r="Y37" t="n">
-        <v>59.25169352509483</v>
+        <v>59.25169352509489</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143306</v>
+        <v>906.8821572143302</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488362</v>
+        <v>685.3585658488357</v>
       </c>
       <c r="F38" t="n">
-        <v>444.4695036874052</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G38" t="n">
-        <v>202.2405627008749</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H38" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I38" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J38" t="n">
         <v>171.9423552115157</v>
@@ -7178,46 +7178,46 @@
         <v>488.4965616626199</v>
       </c>
       <c r="L38" t="n">
-        <v>583.6194250613229</v>
+        <v>931.1800533020551</v>
       </c>
       <c r="M38" t="n">
-        <v>1082.339763848232</v>
+        <v>1082.339763848231</v>
       </c>
       <c r="N38" t="n">
-        <v>1567.859090718536</v>
+        <v>1567.859090718535</v>
       </c>
       <c r="O38" t="n">
-        <v>1974.07823405326</v>
+        <v>1974.078234053259</v>
       </c>
       <c r="P38" t="n">
-        <v>2288.619414816356</v>
+        <v>2288.619414816355</v>
       </c>
       <c r="Q38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.508895017791</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U38" t="n">
-        <v>2317.934720622654</v>
+        <v>2317.934720622653</v>
       </c>
       <c r="V38" t="n">
         <v>2154.217575046994</v>
       </c>
       <c r="W38" t="n">
-        <v>1964.944773432994</v>
+        <v>1964.944773432993</v>
       </c>
       <c r="X38" t="n">
-        <v>1756.176761482886</v>
+        <v>1756.176761482885</v>
       </c>
       <c r="Y38" t="n">
-        <v>1535.897034587123</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>836.385518966998</v>
+        <v>836.3855189669971</v>
       </c>
       <c r="C39" t="n">
-        <v>674.6818462079527</v>
+        <v>674.6818462079518</v>
       </c>
       <c r="D39" t="n">
-        <v>535.8432091981648</v>
+        <v>535.8432091981639</v>
       </c>
       <c r="E39" t="n">
-        <v>388.815199255036</v>
+        <v>388.8151992550351</v>
       </c>
       <c r="F39" t="n">
-        <v>254.1214012049104</v>
+        <v>254.1214012049095</v>
       </c>
       <c r="G39" t="n">
-        <v>125.7208407508981</v>
+        <v>125.7208407508972</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0498384456337</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I39" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J39" t="n">
-        <v>133.5052123540842</v>
+        <v>139.579129586005</v>
       </c>
       <c r="K39" t="n">
-        <v>414.8970008535474</v>
+        <v>420.9709180854682</v>
       </c>
       <c r="L39" t="n">
-        <v>850.5064627543524</v>
+        <v>724.3189203348139</v>
       </c>
       <c r="M39" t="n">
-        <v>1416.978673320066</v>
+        <v>1290.791130900528</v>
       </c>
       <c r="N39" t="n">
-        <v>1416.978673320066</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="O39" t="n">
-        <v>1885.651078296515</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="P39" t="n">
-        <v>2249.122883992185</v>
+        <v>2249.122883992184</v>
       </c>
       <c r="Q39" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R39" t="n">
-        <v>2408.499416583029</v>
+        <v>2408.499416583028</v>
       </c>
       <c r="S39" t="n">
         <v>2261.791262396855</v>
       </c>
       <c r="T39" t="n">
-        <v>2074.427984972333</v>
+        <v>2074.427984972332</v>
       </c>
       <c r="U39" t="n">
-        <v>1855.954767539242</v>
+        <v>1855.954767539241</v>
       </c>
       <c r="V39" t="n">
-        <v>1627.559144987576</v>
+        <v>1627.559144987575</v>
       </c>
       <c r="W39" t="n">
         <v>1386.243276220885</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.32628809868</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y39" t="n">
-        <v>995.804961748259</v>
+        <v>995.8049617482581</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1748.924968221668</v>
+        <v>92.02493753753033</v>
       </c>
       <c r="C40" t="n">
-        <v>1748.924968221668</v>
+        <v>92.02493753753033</v>
       </c>
       <c r="D40" t="n">
-        <v>1748.924968221668</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E40" t="n">
-        <v>1748.924968221668</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F40" t="n">
-        <v>1748.924968221668</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G40" t="n">
-        <v>1748.924968221668</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H40" t="n">
-        <v>1748.924968221668</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I40" t="n">
-        <v>1690.343072533196</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J40" t="n">
-        <v>1690.343072533196</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K40" t="n">
-        <v>1755.253880616811</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L40" t="n">
-        <v>1895.92265555882</v>
+        <v>254.538036394738</v>
       </c>
       <c r="M40" t="n">
-        <v>2056.155602570999</v>
+        <v>414.770983406917</v>
       </c>
       <c r="N40" t="n">
-        <v>2215.813025710734</v>
+        <v>574.428406546652</v>
       </c>
       <c r="O40" t="n">
-        <v>2352.363943961536</v>
+        <v>710.9793247974544</v>
       </c>
       <c r="P40" t="n">
-        <v>2447.92266845569</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="Q40" t="n">
-        <v>2447.92266845569</v>
+        <v>791.0226377715529</v>
       </c>
       <c r="R40" t="n">
-        <v>2447.92266845569</v>
+        <v>791.0226377715529</v>
       </c>
       <c r="S40" t="n">
-        <v>2412.266375119177</v>
+        <v>755.3663444350399</v>
       </c>
       <c r="T40" t="n">
-        <v>2353.524266239863</v>
+        <v>523.3621070273272</v>
       </c>
       <c r="U40" t="n">
-        <v>2239.611151628978</v>
+        <v>409.448992416442</v>
       </c>
       <c r="V40" t="n">
-        <v>2152.137975715799</v>
+        <v>321.9758165032633</v>
       </c>
       <c r="W40" t="n">
-        <v>1865.981574233198</v>
+        <v>209.0815435490612</v>
       </c>
       <c r="X40" t="n">
-        <v>1807.991238656973</v>
+        <v>151.0912079728356</v>
       </c>
       <c r="Y40" t="n">
-        <v>1759.218208377649</v>
+        <v>102.3181776935114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.115623597503</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C41" t="n">
-        <v>1106.443993458709</v>
+        <v>1106.443993458708</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143311</v>
+        <v>906.8821572143306</v>
       </c>
       <c r="E41" t="n">
-        <v>685.3585658488366</v>
+        <v>685.3585658488363</v>
       </c>
       <c r="F41" t="n">
-        <v>444.4695036874057</v>
+        <v>444.4695036874054</v>
       </c>
       <c r="G41" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H41" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I41" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J41" t="n">
         <v>171.9423552115157</v>
@@ -7415,37 +7415,37 @@
         <v>488.4965616626199</v>
       </c>
       <c r="L41" t="n">
-        <v>931.1800533020551</v>
+        <v>742.9226787006563</v>
       </c>
       <c r="M41" t="n">
-        <v>1241.643017487566</v>
+        <v>1241.643017487565</v>
       </c>
       <c r="N41" t="n">
-        <v>1727.16234435787</v>
+        <v>1727.162344357869</v>
       </c>
       <c r="O41" t="n">
-        <v>2133.381487692594</v>
+        <v>2133.381487692593</v>
       </c>
       <c r="P41" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q41" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R41" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S41" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.508895017791</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U41" t="n">
         <v>2317.934720622654</v>
       </c>
       <c r="V41" t="n">
-        <v>2154.217575046995</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W41" t="n">
         <v>1964.944773432994</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>875.8087708396599</v>
+        <v>836.3855189669971</v>
       </c>
       <c r="C42" t="n">
-        <v>714.1050980806147</v>
+        <v>674.6818462079518</v>
       </c>
       <c r="D42" t="n">
-        <v>575.2664610708267</v>
+        <v>535.8432091981639</v>
       </c>
       <c r="E42" t="n">
-        <v>428.2384511276979</v>
+        <v>388.8151992550351</v>
       </c>
       <c r="F42" t="n">
-        <v>293.5446530775723</v>
+        <v>254.1214012049095</v>
       </c>
       <c r="G42" t="n">
-        <v>165.14409262356</v>
+        <v>125.7208407508972</v>
       </c>
       <c r="H42" t="n">
         <v>106.0498384456337</v>
       </c>
       <c r="I42" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J42" t="n">
         <v>139.579129586005</v>
@@ -7494,46 +7494,46 @@
         <v>420.9709180854682</v>
       </c>
       <c r="L42" t="n">
-        <v>856.5803799862731</v>
+        <v>724.3189203348139</v>
       </c>
       <c r="M42" t="n">
-        <v>856.5803799862731</v>
+        <v>1290.791130900528</v>
       </c>
       <c r="N42" t="n">
-        <v>1451.44032738226</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="O42" t="n">
-        <v>1885.651078296515</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="P42" t="n">
-        <v>2249.122883992185</v>
+        <v>2249.122883992184</v>
       </c>
       <c r="Q42" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R42" t="n">
-        <v>2447.92266845569</v>
+        <v>2408.499416583028</v>
       </c>
       <c r="S42" t="n">
-        <v>2301.214514269517</v>
+        <v>2261.791262396855</v>
       </c>
       <c r="T42" t="n">
-        <v>2113.851236844994</v>
+        <v>2074.427984972332</v>
       </c>
       <c r="U42" t="n">
-        <v>1895.378019411903</v>
+        <v>1855.954767539241</v>
       </c>
       <c r="V42" t="n">
-        <v>1666.982396860237</v>
+        <v>1627.559144987575</v>
       </c>
       <c r="W42" t="n">
-        <v>1425.666528093547</v>
+        <v>1386.243276220885</v>
       </c>
       <c r="X42" t="n">
-        <v>1227.749539971342</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y42" t="n">
-        <v>1035.228213620921</v>
+        <v>995.8049617482581</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="C43" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="D43" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J43" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L43" t="n">
         <v>254.538036394738</v>
@@ -7594,25 +7594,25 @@
         <v>806.5380492916083</v>
       </c>
       <c r="S43" t="n">
-        <v>770.8817559550953</v>
+        <v>597.6196274266965</v>
       </c>
       <c r="T43" t="n">
-        <v>712.1396470757813</v>
+        <v>480.2956228589103</v>
       </c>
       <c r="U43" t="n">
-        <v>598.2265324648962</v>
+        <v>366.3825082480252</v>
       </c>
       <c r="V43" t="n">
-        <v>510.7533565517176</v>
+        <v>278.9093323348466</v>
       </c>
       <c r="W43" t="n">
-        <v>224.5969550691167</v>
+        <v>166.0150593806445</v>
       </c>
       <c r="X43" t="n">
-        <v>166.6066194928912</v>
+        <v>108.024723804419</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.833589213567</v>
+        <v>59.25169352509484</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143304</v>
+        <v>906.8821572143299</v>
       </c>
       <c r="E44" t="n">
         <v>685.3585658488357</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874049</v>
+        <v>444.469503687405</v>
       </c>
       <c r="G44" t="n">
-        <v>202.2405627008749</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H44" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I44" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J44" t="n">
         <v>171.9423552115157</v>
       </c>
       <c r="K44" t="n">
-        <v>171.9423552115157</v>
+        <v>488.4965616626199</v>
       </c>
       <c r="L44" t="n">
-        <v>583.6194250613229</v>
+        <v>931.1800533020551</v>
       </c>
       <c r="M44" t="n">
-        <v>1082.339763848232</v>
+        <v>1429.900392088964</v>
       </c>
       <c r="N44" t="n">
-        <v>1567.859090718536</v>
+        <v>1567.859090718535</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.07823405326</v>
+        <v>1974.078234053259</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.619414816356</v>
+        <v>2288.619414816355</v>
       </c>
       <c r="Q44" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R44" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S44" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.508895017791</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.934720622654</v>
+        <v>2317.934720622653</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575046993</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.944773432994</v>
+        <v>1964.944773432993</v>
       </c>
       <c r="X44" t="n">
-        <v>1756.176761482886</v>
+        <v>1756.176761482885</v>
       </c>
       <c r="Y44" t="n">
-        <v>1535.897034587123</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>836.385518966998</v>
+        <v>836.3855189669971</v>
       </c>
       <c r="C45" t="n">
-        <v>674.6818462079527</v>
+        <v>674.6818462079518</v>
       </c>
       <c r="D45" t="n">
-        <v>535.8432091981648</v>
+        <v>535.8432091981639</v>
       </c>
       <c r="E45" t="n">
-        <v>388.815199255036</v>
+        <v>388.8151992550351</v>
       </c>
       <c r="F45" t="n">
-        <v>254.1214012049104</v>
+        <v>254.1214012049095</v>
       </c>
       <c r="G45" t="n">
-        <v>125.7208407508981</v>
+        <v>145.7291054320987</v>
       </c>
       <c r="H45" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I45" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J45" t="n">
-        <v>105.117475523812</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K45" t="n">
-        <v>386.5092640232753</v>
+        <v>330.350241868577</v>
       </c>
       <c r="L45" t="n">
-        <v>822.1187259240802</v>
+        <v>330.350241868577</v>
       </c>
       <c r="M45" t="n">
-        <v>822.1187259240802</v>
+        <v>896.8224524342911</v>
       </c>
       <c r="N45" t="n">
-        <v>1416.978673320066</v>
+        <v>1491.682399830278</v>
       </c>
       <c r="O45" t="n">
-        <v>1885.651078296515</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="P45" t="n">
-        <v>2249.122883992185</v>
+        <v>2249.122883992184</v>
       </c>
       <c r="Q45" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R45" t="n">
-        <v>2408.499416583029</v>
+        <v>2408.499416583028</v>
       </c>
       <c r="S45" t="n">
         <v>2261.791262396855</v>
       </c>
       <c r="T45" t="n">
-        <v>2074.427984972333</v>
+        <v>2074.427984972332</v>
       </c>
       <c r="U45" t="n">
-        <v>1855.954767539242</v>
+        <v>1855.954767539241</v>
       </c>
       <c r="V45" t="n">
-        <v>1627.559144987576</v>
+        <v>1627.559144987575</v>
       </c>
       <c r="W45" t="n">
         <v>1386.243276220885</v>
       </c>
       <c r="X45" t="n">
-        <v>1188.32628809868</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y45" t="n">
-        <v>995.804961748259</v>
+        <v>995.8049617482581</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.5403490575857</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="C46" t="n">
-        <v>107.5403490575857</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="D46" t="n">
-        <v>107.5403490575857</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E46" t="n">
-        <v>107.5403490575857</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F46" t="n">
-        <v>89.57789494497585</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G46" t="n">
-        <v>89.57789494497585</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H46" t="n">
-        <v>89.57789494497585</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I46" t="n">
-        <v>89.57789494497585</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J46" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L46" t="n">
         <v>254.538036394738</v>
@@ -7828,28 +7828,28 @@
         <v>806.5380492916083</v>
       </c>
       <c r="R46" t="n">
-        <v>806.5380492916083</v>
+        <v>747.9561536031359</v>
       </c>
       <c r="S46" t="n">
-        <v>770.8817559550953</v>
+        <v>712.299860266623</v>
       </c>
       <c r="T46" t="n">
-        <v>712.1396470757812</v>
+        <v>653.5577513873091</v>
       </c>
       <c r="U46" t="n">
-        <v>598.2265324648961</v>
+        <v>366.3825082480252</v>
       </c>
       <c r="V46" t="n">
-        <v>510.7533565517174</v>
+        <v>278.9093323348466</v>
       </c>
       <c r="W46" t="n">
-        <v>397.8590835975152</v>
+        <v>166.0150593806445</v>
       </c>
       <c r="X46" t="n">
-        <v>339.8687480212897</v>
+        <v>108.024723804419</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.8335892135668</v>
+        <v>59.25169352509484</v>
       </c>
     </row>
   </sheetData>
@@ -8690,25 +8690,25 @@
         <v>95.59943624652229</v>
       </c>
       <c r="K11" t="n">
-        <v>143.7084298838713</v>
+        <v>357.7345649126596</v>
       </c>
       <c r="L11" t="n">
-        <v>470.7430492978069</v>
+        <v>470.743049297807</v>
       </c>
       <c r="M11" t="n">
-        <v>455.5481880163647</v>
+        <v>80.6096755741079</v>
       </c>
       <c r="N11" t="n">
-        <v>78.12743924032245</v>
+        <v>453.0659516825795</v>
       </c>
       <c r="O11" t="n">
-        <v>459.6563810790544</v>
+        <v>84.71786863679759</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,25 +8766,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.38230935981314</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891461</v>
       </c>
       <c r="L12" t="n">
-        <v>417.0214038611933</v>
+        <v>109.5284733782779</v>
       </c>
       <c r="M12" t="n">
-        <v>33.22243078842001</v>
+        <v>408.160943230677</v>
       </c>
       <c r="N12" t="n">
-        <v>22.27645291330003</v>
+        <v>397.2149653555571</v>
       </c>
       <c r="O12" t="n">
-        <v>296.0958209392693</v>
+        <v>413.5530578288249</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548402</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.59943624652229</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>193.0624428391641</v>
+        <v>95.80453685555001</v>
       </c>
       <c r="M14" t="n">
-        <v>80.6096755741079</v>
+        <v>455.5481880163649</v>
       </c>
       <c r="N14" t="n">
-        <v>453.0659516825792</v>
+        <v>207.9651687404622</v>
       </c>
       <c r="O14" t="n">
-        <v>459.6563810790544</v>
+        <v>459.6563810790547</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157594</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,25 +9003,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981314</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0214038611933</v>
+        <v>417.0214038611934</v>
       </c>
       <c r="M15" t="n">
-        <v>199.1676697584031</v>
+        <v>33.22243078842001</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291330003</v>
+        <v>271.9624541001791</v>
       </c>
       <c r="O15" t="n">
-        <v>38.61454538656793</v>
+        <v>413.5530578288249</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548402</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9164,16 +9164,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>101.6373126545301</v>
+        <v>233.508401435486</v>
       </c>
       <c r="L17" t="n">
-        <v>470.7430492978069</v>
+        <v>470.743049297807</v>
       </c>
       <c r="M17" t="n">
-        <v>212.4807643550634</v>
+        <v>455.548188016365</v>
       </c>
       <c r="N17" t="n">
-        <v>453.0659516825792</v>
+        <v>78.12743924032245</v>
       </c>
       <c r="O17" t="n">
         <v>84.71786863679759</v>
@@ -9243,19 +9243,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>134.8115346440788</v>
       </c>
       <c r="L18" t="n">
         <v>42.08289141893641</v>
       </c>
       <c r="M18" t="n">
-        <v>199.167669758403</v>
+        <v>408.160943230677</v>
       </c>
       <c r="N18" t="n">
-        <v>397.2149653555569</v>
+        <v>22.27645291330003</v>
       </c>
       <c r="O18" t="n">
-        <v>38.61454538656793</v>
+        <v>413.5530578288249</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9401,22 +9401,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L20" t="n">
-        <v>470.7430492978069</v>
+        <v>470.743049297807</v>
       </c>
       <c r="M20" t="n">
         <v>80.6096755741079</v>
       </c>
       <c r="N20" t="n">
-        <v>78.12743924032245</v>
+        <v>453.0659516825795</v>
       </c>
       <c r="O20" t="n">
-        <v>271.7757461720258</v>
+        <v>459.6563810790547</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>175.2708969616262</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9483,22 +9483,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>417.0214038611933</v>
+        <v>208.02813038892</v>
       </c>
       <c r="M21" t="n">
-        <v>408.1609432306769</v>
+        <v>33.22243078842001</v>
       </c>
       <c r="N21" t="n">
-        <v>22.27645291330003</v>
+        <v>397.2149653555571</v>
       </c>
       <c r="O21" t="n">
-        <v>397.5723730851781</v>
+        <v>38.61454538656793</v>
       </c>
       <c r="P21" t="n">
-        <v>46.85836115548402</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.29261096215419</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9638,25 +9638,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L23" t="n">
-        <v>282.8624143907793</v>
+        <v>470.7430492978073</v>
       </c>
       <c r="M23" t="n">
-        <v>80.6096755741079</v>
+        <v>455.5481880163652</v>
       </c>
       <c r="N23" t="n">
-        <v>453.0659516825797</v>
+        <v>78.12743924032245</v>
       </c>
       <c r="O23" t="n">
-        <v>84.71786863679759</v>
+        <v>459.6563810790549</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>336.1832743750955</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>72.38230935981314</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>299.5641669716388</v>
+        <v>408.8359934833704</v>
       </c>
       <c r="M24" t="n">
         <v>33.22243078842001</v>
       </c>
       <c r="N24" t="n">
-        <v>397.2149653555572</v>
+        <v>22.27645291330003</v>
       </c>
       <c r="O24" t="n">
-        <v>38.61454538656793</v>
+        <v>413.5530578288253</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>76.2911133091545</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>94.01961708077395</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981314</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>76.2911133091545</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>185.5556536634924</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10598,13 +10598,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>304.8812713977322</v>
       </c>
       <c r="P35" t="n">
-        <v>100.6199562157594</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>242.656510607738</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>72.38230935981314</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>566.3637803813303</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10683,7 +10683,7 @@
         <v>46.85836115548402</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.7758450512026</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,10 +10826,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>191.8882372582803</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>233.2962518833762</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10899,22 +10899,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>157.7830760112983</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>348.495014903124</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>22.27645291330003</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>38.61454538656793</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11063,10 +11063,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>352.8006146717484</v>
       </c>
       <c r="M41" t="n">
-        <v>394.2086292968461</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11142,16 +11142,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>348.495014903124</v>
       </c>
       <c r="M42" t="n">
-        <v>33.22243078842001</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>477.2112634817756</v>
+        <v>38.61454538656793</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11297,16 +11297,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>101.6373126545301</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>511.6399609462644</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>217.4796600782734</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,22 +11373,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>129.1085943645588</v>
+        <v>72.38230935981314</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>42.08289141893641</v>
       </c>
       <c r="M45" t="n">
-        <v>33.22243078842001</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>436.5627054534738</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>159.4172546014277</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2926861902832</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697048</v>
+        <v>87.1953369705214</v>
       </c>
       <c r="Y11" t="n">
         <v>240.6111831659036</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188221</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>229.1191673765038</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>220.1004714210318</v>
       </c>
       <c r="E14" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>174.2835417775413</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261848</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.0637942864845</v>
       </c>
       <c r="W14" t="n">
-        <v>158.6230645501149</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.2145853697047</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>240.6111831659035</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677456.4490118838</v>
+        <v>677456.4490118839</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810517.6165112481</v>
+        <v>810517.6165112482</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810517.6165112482</v>
+        <v>810517.6165112481</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810517.6165112482</v>
+        <v>810517.6165112481</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810517.6165112482</v>
+        <v>810517.6165112481</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>727582.799931939</v>
+      </c>
+      <c r="C2" t="n">
+        <v>727582.7999319393</v>
+      </c>
+      <c r="D2" t="n">
         <v>727582.7999319391</v>
       </c>
-      <c r="C2" t="n">
-        <v>727582.7999319389</v>
-      </c>
-      <c r="D2" t="n">
-        <v>727582.799931939</v>
-      </c>
       <c r="E2" t="n">
-        <v>635822.4582137787</v>
+        <v>635822.4582137789</v>
       </c>
       <c r="F2" t="n">
-        <v>635822.4582137793</v>
+        <v>635822.4582137786</v>
       </c>
       <c r="G2" t="n">
         <v>729242.8574694725</v>
       </c>
       <c r="H2" t="n">
+        <v>729242.8574694725</v>
+      </c>
+      <c r="I2" t="n">
         <v>729242.8574694723</v>
-      </c>
-      <c r="I2" t="n">
-        <v>729242.8574694725</v>
       </c>
       <c r="J2" t="n">
         <v>729242.8574694725</v>
       </c>
       <c r="K2" t="n">
-        <v>729242.8574694726</v>
+        <v>729242.8574694727</v>
       </c>
       <c r="L2" t="n">
-        <v>729242.8574694725</v>
+        <v>729242.8574694729</v>
       </c>
       <c r="M2" t="n">
-        <v>729242.8574694728</v>
+        <v>729242.8574694727</v>
       </c>
       <c r="N2" t="n">
         <v>729242.8574694729</v>
       </c>
       <c r="O2" t="n">
+        <v>729242.8574694725</v>
+      </c>
+      <c r="P2" t="n">
         <v>729242.8574694727</v>
-      </c>
-      <c r="P2" t="n">
-        <v>729242.857469473</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>352409.0220339869</v>
+        <v>352409.022033987</v>
       </c>
       <c r="F3" t="n">
-        <v>5.152465317159098e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103019</v>
+        <v>76159.64004103016</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>136355.5574477963</v>
       </c>
       <c r="K3" t="n">
-        <v>1.741860185510617e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>76159.6400410302</v>
@@ -26448,16 +26448,16 @@
         <v>348294.7670570374</v>
       </c>
       <c r="M4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="N4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="O4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="P4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458565</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>38612.602411061</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.602411061</v>
+        <v>38612.60241106102</v>
       </c>
       <c r="G5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="I5" t="n">
         <v>46615.93338432274</v>
@@ -26503,7 +26503,7 @@
         <v>54919.19757587668</v>
       </c>
       <c r="N5" t="n">
-        <v>54919.19757587669</v>
+        <v>54919.19757587668</v>
       </c>
       <c r="O5" t="n">
         <v>54919.19757587669</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274198.7974752646</v>
+        <v>274194.4289027973</v>
       </c>
       <c r="C6" t="n">
-        <v>274198.7974752644</v>
+        <v>274194.4289027977</v>
       </c>
       <c r="D6" t="n">
-        <v>274198.7974752645</v>
+        <v>274194.4289027975</v>
       </c>
       <c r="E6" t="n">
-        <v>-58499.457369062</v>
+        <v>-58745.30052499787</v>
       </c>
       <c r="F6" t="n">
-        <v>293909.5646649255</v>
+        <v>293663.7215089887</v>
       </c>
       <c r="G6" t="n">
         <v>247039.3212415012</v>
       </c>
       <c r="H6" t="n">
-        <v>323198.9612825312</v>
+        <v>323198.9612825313</v>
       </c>
       <c r="I6" t="n">
-        <v>323198.9612825312</v>
+        <v>323198.9612825311</v>
       </c>
       <c r="J6" t="n">
         <v>179419.4337818738</v>
       </c>
       <c r="K6" t="n">
-        <v>315774.9912296702</v>
+        <v>315774.9912296704</v>
       </c>
       <c r="L6" t="n">
-        <v>239615.3511886398</v>
+        <v>239615.3511886403</v>
       </c>
       <c r="M6" t="n">
-        <v>240915.0609885347</v>
+        <v>240915.0609885345</v>
       </c>
       <c r="N6" t="n">
-        <v>324389.42924774</v>
+        <v>324389.4292477398</v>
       </c>
       <c r="O6" t="n">
-        <v>319653.6291110059</v>
+        <v>319653.6291110056</v>
       </c>
       <c r="P6" t="n">
-        <v>324389.42924774</v>
+        <v>324389.4292477396</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>148.9952537040168</v>
       </c>
       <c r="G2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="J2" t="n">
         <v>101.1193002222048</v>
@@ -26716,7 +26716,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="N2" t="n">
         <v>171.5295072431147</v>
@@ -26725,7 +26725,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="G4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="H4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="I4" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422573</v>
       </c>
       <c r="J4" t="n">
         <v>877.9875306160457</v>
@@ -26820,16 +26820,16 @@
         <v>877.9875306160457</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139223</v>
       </c>
       <c r="N4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139223</v>
       </c>
       <c r="O4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139223</v>
       </c>
       <c r="P4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139223</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>6.440581646448872e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>95.19955005128773</v>
+        <v>95.1995500512877</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>5.919750170917041</v>
       </c>
       <c r="K2" t="n">
-        <v>2.177325231888271e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128774</v>
+        <v>95.19955005128776</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702090997</v>
+        <v>70.41020702090989</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737885</v>
+        <v>503.0490181737883</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9316489401334</v>
+        <v>108.9316489401337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>148.9952537040168</v>
       </c>
       <c r="K2" t="n">
-        <v>6.440581646448872e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128773</v>
+        <v>95.1995500512877</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>5.919750170917041</v>
       </c>
       <c r="P2" t="n">
-        <v>2.177325231888271e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,22 +28169,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>71.38273357433782</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1165548494722</v>
+        <v>78.99905996252562</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
         <v>56.52047122575468</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,13 +28226,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>148.9952537040168</v>
       </c>
       <c r="X12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>148.9952537040168</v>
@@ -28406,10 +28406,10 @@
         <v>148.9952537040168</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I15" t="n">
         <v>56.52047122575468</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>114.590555456141</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>148.9952537040168</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Y15" t="n">
         <v>148.9952537040168</v>
-      </c>
-      <c r="V15" t="n">
-        <v>148.9952537040168</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>33.91423100487162</v>
       </c>
     </row>
     <row r="16">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="D17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="E17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="F17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I17" t="n">
         <v>147.6958378085047</v>
@@ -28618,19 +28618,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>53.29198554337135</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -28649,13 +28649,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H18" t="n">
         <v>95.80294554235505</v>
@@ -28691,10 +28691,10 @@
         <v>39.0290193539351</v>
       </c>
       <c r="S18" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>151.140340871767</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,19 +28722,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>143.9071276988123</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
         <v>155.3589542808002</v>
@@ -28764,28 +28764,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.36025740485482</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S19" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
-        <v>237.4558266182529</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="C20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="D20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="E20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I20" t="n">
         <v>147.6958378085047</v>
@@ -28855,19 +28855,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
     </row>
     <row r="21">
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>91.01584051129373</v>
+        <v>56.41833620647058</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -29004,28 +29004,28 @@
         <v>15.36025740485482</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>244.1948037553046</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1948037553046</v>
+        <v>38.35691350051596</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.00203946077843</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="C23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="D23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="E23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="F23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="H23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="I23" t="n">
         <v>147.6958378085047</v>
@@ -29092,19 +29092,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="X23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.97349256167178</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I24" t="n">
         <v>56.52047122575468</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>97.58340334267984</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.36025740485482</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S25" t="n">
-        <v>206.8292376462626</v>
+        <v>29.33717436971199</v>
       </c>
       <c r="T25" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>244.1948037553045</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1948037553046</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.787304159067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J26" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>101.1193002222048</v>
@@ -29305,10 +29305,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N26" t="n">
-        <v>45.9890244273721</v>
+        <v>45.98902442737187</v>
       </c>
       <c r="O26" t="n">
         <v>101.1193002222048</v>
@@ -29454,13 +29454,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222043</v>
       </c>
       <c r="K28" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="L28" t="n">
-        <v>101.1193002222043</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M28" t="n">
         <v>101.1193002222048</v>
@@ -29533,7 +29533,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J29" t="n">
-        <v>45.98902442737275</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K29" t="n">
         <v>101.1193002222048</v>
@@ -29542,16 +29542,16 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M29" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P29" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737301</v>
       </c>
       <c r="Q29" t="n">
         <v>101.1193002222048</v>
@@ -29773,19 +29773,19 @@
         <v>101.1193002222048</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>101.1193002222048</v>
       </c>
-      <c r="N32" t="n">
-        <v>95.49255895726708</v>
-      </c>
       <c r="O32" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737244</v>
       </c>
       <c r="P32" t="n">
         <v>101.1193002222048</v>
@@ -29794,7 +29794,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="R32" t="n">
-        <v>51.61576569231048</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S32" t="n">
         <v>101.1193002222048</v>
@@ -29934,7 +29934,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="L34" t="n">
-        <v>101.1193002222043</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M34" t="n">
         <v>101.1193002222048</v>
@@ -29943,7 +29943,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O34" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222042</v>
       </c>
       <c r="P34" t="n">
         <v>101.1193002222048</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="C35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="D35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="E35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="F35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="G35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="H35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="I35" t="n">
         <v>147.6958378085047</v>
@@ -30037,22 +30037,22 @@
         <v>171.5295072431148</v>
       </c>
       <c r="T35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="U35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="V35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="W35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="X35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
     </row>
     <row r="36">
@@ -30065,13 +30065,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>19.80818203438994</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>76.32865326014424</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30192,25 +30192,25 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="T37" t="n">
-        <v>171.5295072431148</v>
+        <v>113.5334305115275</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="V37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="W37" t="n">
-        <v>113.5334305115271</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="X37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.3286532601433</v>
+        <v>19.8081820343895</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>108.9053549137825</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30399,7 +30399,7 @@
         <v>155.3589542808002</v>
       </c>
       <c r="I40" t="n">
-        <v>76.57961766616448</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J40" t="n">
         <v>40.21324716010343</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.36025740485482</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.7881746594375</v>
@@ -30432,7 +30432,7 @@
         <v>171.5295072431147</v>
       </c>
       <c r="T40" t="n">
-        <v>171.5295072431147</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>171.5295072431147</v>
@@ -30441,7 +30441,7 @@
         <v>171.5295072431147</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>171.5295072431147</v>
       </c>
       <c r="X40" t="n">
         <v>171.5295072431147</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>37.29963390620797</v>
+        <v>76.32865326014418</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>92.49284736470693</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30666,10 +30666,10 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S43" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>171.5295072431148</v>
+        <v>113.5334305115272</v>
       </c>
       <c r="U43" t="n">
         <v>171.5295072431148</v>
@@ -30678,7 +30678,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X43" t="n">
         <v>171.5295072431148</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="D44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="E44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="F44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="G44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="H44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="I44" t="n">
         <v>147.6958378085047</v>
@@ -30745,25 +30745,25 @@
         <v>51.61576569231048</v>
       </c>
       <c r="S44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="45">
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>19.80818203438952</v>
       </c>
       <c r="H45" t="n">
-        <v>19.80818203438864</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>56.52047122575468</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>133.1730188529969</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.958367000993</v>
@@ -30876,7 +30876,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.21324716010343</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>15.36025740485482</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7881746594375</v>
+        <v>77.79209792784988</v>
       </c>
       <c r="S46" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T46" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="U46" t="n">
-        <v>171.5295072431147</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W46" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X46" t="n">
-        <v>171.5295072431147</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
   </sheetData>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.07111722934126</v>
+        <v>256.0972522581295</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="O11" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>317.718364407168</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.53603658271835</v>
       </c>
       <c r="K12" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>374.9385124422569</v>
+        <v>67.44558195934145</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="O12" t="n">
-        <v>257.4812755527013</v>
+        <v>374.938512442257</v>
       </c>
       <c r="P12" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>200.8078630944497</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K14" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L14" t="n">
-        <v>97.25790598361405</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="N14" t="n">
-        <v>374.9385124422569</v>
+        <v>129.8377295001397</v>
       </c>
       <c r="O14" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="P14" t="n">
-        <v>317.718364407168</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271835</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L15" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="M15" t="n">
-        <v>165.9452389699831</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>249.6860011868791</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="P15" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>200.8078630944497</v>
@@ -35808,7 +35808,7 @@
         <v>65.56647281173299</v>
       </c>
       <c r="L16" t="n">
-        <v>142.089671658594</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M16" t="n">
         <v>161.8514616284637</v>
@@ -35884,16 +35884,16 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>131.8710887809559</v>
       </c>
       <c r="L17" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="M17" t="n">
-        <v>131.8710887809555</v>
+        <v>374.938512442257</v>
       </c>
       <c r="N17" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>91.53603658271835</v>
       </c>
       <c r="K18" t="n">
-        <v>284.2341297974376</v>
+        <v>75.24085632516417</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>165.945238969983</v>
+        <v>374.938512442257</v>
       </c>
       <c r="N18" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="P18" t="n">
         <v>367.1432380764343</v>
@@ -36121,22 +36121,22 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K20" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>374.9385124422569</v>
+        <v>374.938512442257</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="O20" t="n">
-        <v>187.0578775352282</v>
+        <v>374.938512442257</v>
       </c>
       <c r="P20" t="n">
-        <v>317.718364407168</v>
+        <v>74.65094074586681</v>
       </c>
       <c r="Q20" t="n">
         <v>160.912377413469</v>
@@ -36203,22 +36203,22 @@
         <v>284.2341297974376</v>
       </c>
       <c r="L21" t="n">
-        <v>374.9385124422569</v>
+        <v>165.9452389699836</v>
       </c>
       <c r="M21" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>374.938512442257</v>
       </c>
       <c r="O21" t="n">
-        <v>358.9578276986102</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K23" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>187.0578775352293</v>
+        <v>374.9385124422573</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>374.9385124422573</v>
       </c>
       <c r="N23" t="n">
-        <v>374.9385124422572</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>374.9385124422573</v>
       </c>
       <c r="P23" t="n">
-        <v>317.718364407168</v>
+        <v>235.5633181593361</v>
       </c>
       <c r="Q23" t="n">
-        <v>160.912377413469</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>91.53603658271835</v>
       </c>
       <c r="K24" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L24" t="n">
-        <v>257.4812755527024</v>
+        <v>366.753102064434</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>374.9385124422572</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>374.9385124422573</v>
       </c>
       <c r="P24" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.3454636993785</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K26" t="n">
         <v>420.8710239101889</v>
@@ -36601,10 +36601,10 @@
         <v>548.2743422822404</v>
       </c>
       <c r="M26" t="n">
-        <v>503.7579179665744</v>
+        <v>604.8772181887792</v>
       </c>
       <c r="N26" t="n">
-        <v>536.412586922629</v>
+        <v>536.4125869226287</v>
       </c>
       <c r="O26" t="n">
         <v>511.4416672269762</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.9060530621014</v>
+        <v>60.90605306210084</v>
       </c>
       <c r="K28" t="n">
         <v>166.6857730339378</v>
       </c>
       <c r="L28" t="n">
-        <v>243.2089718807988</v>
+        <v>243.2089718807993</v>
       </c>
       <c r="M28" t="n">
         <v>262.9707618506685</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>170.2151879045464</v>
+        <v>225.3454636993784</v>
       </c>
       <c r="K29" t="n">
         <v>420.8710239101889</v>
@@ -36838,22 +36838,22 @@
         <v>548.2743422822404</v>
       </c>
       <c r="M29" t="n">
-        <v>604.8772181887791</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N29" t="n">
         <v>591.5428627174617</v>
       </c>
       <c r="O29" t="n">
-        <v>410.3223670047713</v>
+        <v>511.4416672269761</v>
       </c>
       <c r="P29" t="n">
-        <v>418.8376646293728</v>
+        <v>363.707388834541</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.0316776356739</v>
+        <v>262.0316776356738</v>
       </c>
       <c r="R29" t="n">
-        <v>49.50353452989432</v>
+        <v>49.50353452989429</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M30" t="n">
-        <v>43.06868252073448</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N30" t="n">
-        <v>600.8686337333195</v>
+        <v>71.74316416747392</v>
       </c>
       <c r="O30" t="n">
         <v>473.4064696731804</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210137</v>
+        <v>60.90605306210134</v>
       </c>
       <c r="K31" t="n">
         <v>166.6857730339378</v>
       </c>
       <c r="L31" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807992</v>
       </c>
       <c r="M31" t="n">
         <v>262.9707618506685</v>
       </c>
       <c r="N31" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057754</v>
       </c>
       <c r="O31" t="n">
         <v>239.0495206775608</v>
       </c>
       <c r="P31" t="n">
-        <v>197.6432643577139</v>
+        <v>197.6432643577138</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281734995</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.3454636993784</v>
+        <v>225.3454636993785</v>
       </c>
       <c r="K32" t="n">
-        <v>319.7517236879841</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L32" t="n">
         <v>548.2743422822404</v>
       </c>
       <c r="M32" t="n">
-        <v>604.8772181887791</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N32" t="n">
-        <v>585.916121452524</v>
+        <v>591.5428627174617</v>
       </c>
       <c r="O32" t="n">
-        <v>511.4416672269761</v>
+        <v>456.3113914321438</v>
       </c>
       <c r="P32" t="n">
         <v>418.8376646293728</v>
@@ -37090,7 +37090,7 @@
         <v>262.0316776356739</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.50353452989435</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.53603658271835</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>284.2341297974376</v>
@@ -37154,10 +37154,10 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M33" t="n">
-        <v>43.06868252073448</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N33" t="n">
-        <v>600.8686337333195</v>
+        <v>163.2792007501924</v>
       </c>
       <c r="O33" t="n">
         <v>473.4064696731804</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210139</v>
+        <v>60.9060530621014</v>
       </c>
       <c r="K34" t="n">
         <v>166.6857730339378</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2089718807988</v>
+        <v>243.2089718807993</v>
       </c>
       <c r="M34" t="n">
         <v>262.9707618506685</v>
@@ -37239,13 +37239,13 @@
         <v>262.3894246057755</v>
       </c>
       <c r="O34" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775602</v>
       </c>
       <c r="P34" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281734999</v>
+        <v>85.75904281735001</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>490.4235624952569</v>
       </c>
       <c r="O35" t="n">
-        <v>410.3223670047713</v>
+        <v>220.1634027609346</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q35" t="n">
-        <v>127.5594001633309</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.53603658271835</v>
       </c>
       <c r="K36" t="n">
         <v>284.2341297974376</v>
@@ -37391,7 +37391,7 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M36" t="n">
-        <v>572.1941520865799</v>
+        <v>533.1413495929103</v>
       </c>
       <c r="N36" t="n">
         <v>600.8686337333195</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.48323408904842</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>319.7517236879841</v>
       </c>
       <c r="L38" t="n">
-        <v>96.08370040273027</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M38" t="n">
-        <v>503.7579179665744</v>
+        <v>152.6865763092682</v>
       </c>
       <c r="N38" t="n">
         <v>490.4235624952569</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.4007666514852</v>
+        <v>91.53603658271835</v>
       </c>
       <c r="K39" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L39" t="n">
-        <v>440.0095574755605</v>
+        <v>306.4121234841876</v>
       </c>
       <c r="M39" t="n">
         <v>572.1941520865799</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O39" t="n">
-        <v>473.4064696731804</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>367.1432380764343</v>
@@ -37783,10 +37783,10 @@
         <v>319.7517236879841</v>
       </c>
       <c r="L41" t="n">
-        <v>447.1550420600356</v>
+        <v>256.9960778161984</v>
       </c>
       <c r="M41" t="n">
-        <v>313.5989537227382</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N41" t="n">
         <v>490.4235624952569</v>
@@ -37862,16 +37862,16 @@
         <v>284.2341297974376</v>
       </c>
       <c r="L42" t="n">
-        <v>440.0095574755605</v>
+        <v>306.4121234841876</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N42" t="n">
         <v>600.8686337333195</v>
       </c>
       <c r="O42" t="n">
-        <v>438.5967180952077</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>367.1432380764343</v>
@@ -38017,16 +38017,16 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L44" t="n">
-        <v>415.8354240907144</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M44" t="n">
         <v>503.7579179665744</v>
       </c>
       <c r="N44" t="n">
-        <v>490.4235624952569</v>
+        <v>139.352220837951</v>
       </c>
       <c r="O44" t="n">
         <v>410.3223670047713</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>56.72628500474566</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L45" t="n">
-        <v>440.0095574755605</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N45" t="n">
         <v>600.8686337333195</v>
       </c>
       <c r="O45" t="n">
-        <v>473.4064696731804</v>
+        <v>397.9481600669058</v>
       </c>
       <c r="P45" t="n">
         <v>367.1432380764343</v>
